--- a/pocketlinux.xlsx
+++ b/pocketlinux.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" state="visible" r:id="rId2"/>
@@ -230,6 +230,12 @@
     <t xml:space="preserve">Eee Pad Transformer Prime</t>
   </si>
   <si>
+    <t xml:space="preserve">Eee Pad Transformer TF300T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">See Also https://wiki.ubuntu.com/Touch/Devices/tf300t</t>
+  </si>
+  <si>
     <t xml:space="preserve">MeMO Pad 7 (ME176C(X))</t>
   </si>
   <si>
@@ -245,6 +251,9 @@
     <t xml:space="preserve">Transformer Pad 3G</t>
   </si>
   <si>
+    <t xml:space="preserve">Zenfone 2 (Z00L)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ZenFone 2 Laser (720p)</t>
   </si>
   <si>
@@ -260,27 +269,18 @@
     <t xml:space="preserve">Zenfone Max</t>
   </si>
   <si>
+    <t xml:space="preserve">Zenfone Max Pro M1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zenfone Max Pro M2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zenpad 8.0 (Z380KL)</t>
   </si>
   <si>
     <t xml:space="preserve">Zenwatch 2</t>
   </si>
   <si>
-    <t xml:space="preserve">Zenfone Max Pro M1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zenfone Max Pro M2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Also: https://wiki.ubuntu.com/Touch/Devices/tf300t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eee Pad Transformer TF300T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zenfone 2 (Z00L)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bliss</t>
   </si>
   <si>
@@ -302,16 +302,16 @@
     <t xml:space="preserve">Aquaris M10 HD</t>
   </si>
   <si>
+    <t xml:space="preserve">Aquaris M5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aquaris U</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aquaris U Plus</t>
   </si>
   <si>
     <t xml:space="preserve">Aquaris X5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aquaris M5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aquaris U</t>
   </si>
   <si>
     <t xml:space="preserve">Aquaris X5 Plus</t>
@@ -579,8 +579,8 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right/>
+      <left/>
+      <right style="thin"/>
       <top style="thin">
         <color rgb="FF666666"/>
       </top>
@@ -590,8 +590,8 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin"/>
+      <left style="thin"/>
+      <right/>
       <top style="thin">
         <color rgb="FF666666"/>
       </top>
@@ -640,7 +640,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="48">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -789,11 +789,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -801,23 +813,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -835,10 +831,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -850,6 +842,51 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF000000"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00A933"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9E0404"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0023FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF69EFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -918,12 +955,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XFD1048576"/>
+  <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E56" activeCellId="0" sqref="E56"/>
+      <selection pane="bottomLeft" activeCell="I53" activeCellId="0" sqref="I53:R53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.34375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1634,6 +1671,7 @@
       <c r="H49" s="26"/>
     </row>
     <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3"/>
       <c r="B50" s="21" t="s">
         <v>67</v>
       </c>
@@ -1647,6 +1685,7 @@
       <c r="H50" s="26"/>
     </row>
     <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3"/>
       <c r="B51" s="21" t="s">
         <v>68</v>
       </c>
@@ -1660,21 +1699,25 @@
       <c r="H51" s="26"/>
     </row>
     <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="37" t="s">
+      <c r="A52" s="3"/>
+      <c r="B52" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="38"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="37"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="39" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="37" t="s">
-        <v>70</v>
+      <c r="A53" s="3"/>
+      <c r="B53" s="40" t="s">
+        <v>71</v>
       </c>
       <c r="C53" s="22" t="s">
         <v>11</v>
@@ -1683,193 +1726,202 @@
       <c r="E53" s="24"/>
       <c r="F53" s="24"/>
       <c r="G53" s="24"/>
-      <c r="H53" s="38"/>
+      <c r="H53" s="39"/>
     </row>
     <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C54" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="40"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
+      <c r="A54" s="3"/>
+      <c r="B54" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
       <c r="H54" s="41"/>
     </row>
     <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="3"/>
       <c r="B55" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C55" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="40"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="40"/>
+        <v>73</v>
+      </c>
+      <c r="C55" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
       <c r="H55" s="41"/>
     </row>
     <row r="56" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="3"/>
       <c r="B56" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="40"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="40"/>
+        <v>74</v>
+      </c>
+      <c r="C56" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
       <c r="H56" s="41"/>
     </row>
     <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="3"/>
       <c r="B57" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C57" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="40"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="40"/>
+        <v>75</v>
+      </c>
+      <c r="C57" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
       <c r="H57" s="41"/>
     </row>
     <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="3"/>
       <c r="B58" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C58" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="40"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="40"/>
+        <v>76</v>
+      </c>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="37"/>
       <c r="H58" s="41"/>
     </row>
     <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="3"/>
       <c r="B59" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C59" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="40"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
+        <v>77</v>
+      </c>
+      <c r="C59" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
       <c r="H59" s="41"/>
     </row>
     <row r="60" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="3"/>
       <c r="B60" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C60" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="40"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="40"/>
+        <v>78</v>
+      </c>
+      <c r="C60" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="37"/>
+      <c r="E60" s="37"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
       <c r="H60" s="41"/>
     </row>
     <row r="61" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A61" s="3"/>
       <c r="B61" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C61" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="40"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="40"/>
-      <c r="G61" s="40"/>
+        <v>79</v>
+      </c>
+      <c r="C61" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="37"/>
+      <c r="E61" s="37"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
       <c r="H61" s="41"/>
     </row>
     <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="3"/>
       <c r="B62" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C62" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="40"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="40"/>
-      <c r="G62" s="40"/>
+        <v>80</v>
+      </c>
+      <c r="C62" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="37"/>
+      <c r="E62" s="37"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
       <c r="H62" s="41"/>
     </row>
     <row r="63" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A63" s="3"/>
       <c r="B63" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C63" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="40"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="40"/>
-      <c r="G63" s="40"/>
+        <v>81</v>
+      </c>
+      <c r="C63" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="37"/>
+      <c r="E63" s="37"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="37"/>
       <c r="H63" s="41"/>
     </row>
     <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B64" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C64" s="18"/>
-      <c r="D64" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
+      <c r="A64" s="3"/>
+      <c r="B64" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" s="37"/>
+      <c r="D64" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="37"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="41"/>
     </row>
     <row r="65" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B65" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
+      <c r="A65" s="3"/>
+      <c r="B65" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
       <c r="E65" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="41"/>
     </row>
     <row r="66" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C66" s="18"/>
-      <c r="D66" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="XFD66" s="0"/>
+      <c r="C66" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="41"/>
     </row>
     <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B67" s="3" t="s">
+      <c r="A67" s="44"/>
+      <c r="B67" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
+      <c r="C67" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="41"/>
     </row>
     <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="3"/>
@@ -2025,32 +2077,33 @@
       <c r="H84" s="18"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="45"/>
-      <c r="C88" s="45"/>
-      <c r="D88" s="45"/>
-      <c r="E88" s="45"/>
-      <c r="F88" s="45"/>
-      <c r="G88" s="45"/>
-      <c r="H88" s="45"/>
+      <c r="B88" s="44"/>
+      <c r="C88" s="44"/>
+      <c r="D88" s="44"/>
+      <c r="E88" s="44"/>
+      <c r="F88" s="44"/>
+      <c r="G88" s="44"/>
+      <c r="H88" s="44"/>
     </row>
     <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="45"/>
-      <c r="C104" s="45"/>
-      <c r="D104" s="45"/>
-      <c r="E104" s="45"/>
-      <c r="F104" s="45"/>
-      <c r="G104" s="45"/>
-      <c r="H104" s="45"/>
+      <c r="B104" s="44"/>
+      <c r="C104" s="44"/>
+      <c r="D104" s="44"/>
+      <c r="E104" s="44"/>
+      <c r="F104" s="44"/>
+      <c r="G104" s="44"/>
+      <c r="H104" s="44"/>
     </row>
     <row r="107" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="A4:A13"/>
     <mergeCell ref="A14:A27"/>
+    <mergeCell ref="A50:A65"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" display="yes"/>
@@ -2095,23 +2148,23 @@
     <hyperlink ref="C49" r:id="rId40" display="yes"/>
     <hyperlink ref="C50" r:id="rId41" display="yes"/>
     <hyperlink ref="C51" r:id="rId42" display="yes"/>
-    <hyperlink ref="C52" r:id="rId43" display="yes"/>
-    <hyperlink ref="C53" r:id="rId44" display="yes"/>
-    <hyperlink ref="C54" r:id="rId45" display="yes"/>
-    <hyperlink ref="C55" r:id="rId46" display="yes"/>
-    <hyperlink ref="C56" r:id="rId47" display="yes"/>
-    <hyperlink ref="C57" r:id="rId48" display="yes"/>
-    <hyperlink ref="C58" r:id="rId49" display="yes"/>
-    <hyperlink ref="C59" r:id="rId50" display="yes"/>
-    <hyperlink ref="C60" r:id="rId51" display="yes"/>
-    <hyperlink ref="C61" r:id="rId52" display="yes"/>
-    <hyperlink ref="C62" r:id="rId53" display="yes"/>
-    <hyperlink ref="C63" r:id="rId54" display="yes"/>
-    <hyperlink ref="D64" r:id="rId55" display="yes"/>
-    <hyperlink ref="E65" r:id="rId56" display="yes"/>
-    <hyperlink ref="A66" r:id="rId57" display="https://wiki.ubuntu.com/Touch/Devices/tf300t"/>
-    <hyperlink ref="D66" r:id="rId58" display="yes"/>
-    <hyperlink ref="F67" r:id="rId59" display="yes"/>
+    <hyperlink ref="D52" r:id="rId43" display="yes"/>
+    <hyperlink ref="H52" r:id="rId44" display="https://wiki.ubuntu.com/Touch/Devices/tf300t"/>
+    <hyperlink ref="C53" r:id="rId45" display="yes"/>
+    <hyperlink ref="C54" r:id="rId46" display="yes"/>
+    <hyperlink ref="C55" r:id="rId47" display="yes"/>
+    <hyperlink ref="C56" r:id="rId48" display="yes"/>
+    <hyperlink ref="C57" r:id="rId49" display="yes"/>
+    <hyperlink ref="F58" r:id="rId50" display="yes"/>
+    <hyperlink ref="C59" r:id="rId51" display="yes"/>
+    <hyperlink ref="C60" r:id="rId52" display="yes"/>
+    <hyperlink ref="C61" r:id="rId53" display="yes"/>
+    <hyperlink ref="C62" r:id="rId54" display="yes"/>
+    <hyperlink ref="C63" r:id="rId55" display="yes"/>
+    <hyperlink ref="D64" r:id="rId56" display="yes"/>
+    <hyperlink ref="E65" r:id="rId57" display="yes"/>
+    <hyperlink ref="C66" r:id="rId58" display="yes"/>
+    <hyperlink ref="C67" r:id="rId59" display="yes"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2128,12 +2181,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XFD107"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="F9" activeCellId="1" sqref="I53:R53 F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.34375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2193,125 +2246,125 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="45" t="s">
         <v>86</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="47" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="46" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="41"/>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="47" t="s">
         <v>88</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="49" t="s">
+      <c r="C5" s="37"/>
+      <c r="D5" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
       <c r="H5" s="41"/>
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="48"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="49" t="s">
+      <c r="C6" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
       <c r="H6" s="41"/>
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="48"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="40"/>
-      <c r="D7" s="49" t="s">
+      <c r="C7" s="37"/>
+      <c r="D7" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
       <c r="H7" s="41"/>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="48"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
+      <c r="C8" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
       <c r="H8" s="41"/>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="48"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="47"/>
+      <c r="B9" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
+      <c r="C9" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
       <c r="H9" s="41"/>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="48"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
       <c r="H10" s="41"/>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="48"/>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="47"/>
+      <c r="B11" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
+      <c r="C11" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
       <c r="H11" s="41"/>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="48"/>
+      <c r="A12" s="47"/>
       <c r="B12" s="13" t="s">
         <v>97</v>
       </c>
@@ -2400,13 +2453,13 @@
     <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
     </row>
     <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2424,13 +2477,13 @@
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2457,9 +2510,7 @@
     <row r="63" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="65" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="XFD66" s="0"/>
-    </row>
+    <row r="66" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="69" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2487,13 +2538,13 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1" display="yes"/>
-    <hyperlink ref="D5" r:id="rId2" display="yes"/>
+    <hyperlink ref="D5" r:id="rId2" display="yes(native)"/>
     <hyperlink ref="C6" r:id="rId3" display="yes"/>
-    <hyperlink ref="D6" r:id="rId4" display="yes"/>
-    <hyperlink ref="D7" r:id="rId5" display="yes"/>
-    <hyperlink ref="D8" r:id="rId6" display="yes"/>
+    <hyperlink ref="D6" r:id="rId4" display="yes(native)"/>
+    <hyperlink ref="D7" r:id="rId5" display="yes(native)"/>
+    <hyperlink ref="C8" r:id="rId6" display="yes"/>
     <hyperlink ref="C9" r:id="rId7" display="yes"/>
-    <hyperlink ref="C10" r:id="rId8" display="yes"/>
+    <hyperlink ref="D10" r:id="rId8" display="yes"/>
     <hyperlink ref="C11" r:id="rId9" display="yes"/>
     <hyperlink ref="C12" r:id="rId10" display="yes"/>
   </hyperlinks>

--- a/pocketlinux.xlsx
+++ b/pocketlinux.xlsx
@@ -5,11 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="B" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="C" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="D" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="E" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="F" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="G" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="135">
   <si>
     <t xml:space="preserve">List of mobile devices which support mobile linux distros</t>
   </si>
@@ -315,6 +320,117 @@
   </si>
   <si>
     <t xml:space="preserve">Aquaris X5 Plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chuwi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi 10 Air</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi 10 Go</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: it can run many distros such as Manjaro, Debian, Mint etc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi 10 Plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hi 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clockwork Pi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uConsole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opensource project (see more details)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CTL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chromebook Tablet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChromeOS(native)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cherry Mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AirTab 10 P110W/P110G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essentials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essentials Phone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Life Tab Plus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R570</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fairphone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check this</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3/3+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finepower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iq4404 Spark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fujitsu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">M532</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F(x)tec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pro1x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check forum for details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geeksphone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revolution</t>
   </si>
 </sst>
 </file>
@@ -372,7 +488,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -418,13 +534,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFDEC70C"/>
-        <bgColor rgb="FF99CC00"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFEEEEEE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF81D41A"/>
+        <bgColor rgb="FFDEC70C"/>
       </patternFill>
     </fill>
   </fills>
@@ -640,7 +762,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="57">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -789,6 +911,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -831,6 +957,38 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -842,7 +1000,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -855,6 +1013,20 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF000000"/>
           <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0023FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF666666"/>
         </patternFill>
       </fill>
     </dxf>
@@ -875,14 +1047,14 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF0023FF"/>
+          <fgColor rgb="FF69EFFF"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF69EFFF"/>
+          <fgColor rgb="FFDEC70C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -931,7 +1103,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FF81D41A"/>
       <rgbColor rgb="FFDEC70C"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -957,10 +1129,10 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="3" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I53" activeCellId="0" sqref="I53:R53"/>
+      <selection pane="bottomLeft" activeCell="H52" activeCellId="0" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.34375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1671,7 +1843,7 @@
       <c r="H49" s="26"/>
     </row>
     <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="3"/>
+      <c r="A50" s="37"/>
       <c r="B50" s="21" t="s">
         <v>67</v>
       </c>
@@ -1685,7 +1857,7 @@
       <c r="H50" s="26"/>
     </row>
     <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="3"/>
+      <c r="A51" s="37"/>
       <c r="B51" s="21" t="s">
         <v>68</v>
       </c>
@@ -1699,24 +1871,24 @@
       <c r="H51" s="26"/>
     </row>
     <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="3"/>
+      <c r="A52" s="37"/>
       <c r="B52" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="37"/>
-      <c r="D52" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="39" t="s">
+      <c r="C52" s="38"/>
+      <c r="D52" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="40" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="3"/>
-      <c r="B53" s="40" t="s">
+      <c r="A53" s="37"/>
+      <c r="B53" s="41" t="s">
         <v>71</v>
       </c>
       <c r="C53" s="22" t="s">
@@ -1726,11 +1898,11 @@
       <c r="E53" s="24"/>
       <c r="F53" s="24"/>
       <c r="G53" s="24"/>
-      <c r="H53" s="39"/>
+      <c r="H53" s="40"/>
     </row>
     <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="3"/>
-      <c r="B54" s="40" t="s">
+      <c r="A54" s="37"/>
+      <c r="B54" s="41" t="s">
         <v>72</v>
       </c>
       <c r="C54" s="22" t="s">
@@ -1740,188 +1912,188 @@
       <c r="E54" s="24"/>
       <c r="F54" s="24"/>
       <c r="G54" s="24"/>
-      <c r="H54" s="41"/>
+      <c r="H54" s="42"/>
     </row>
     <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="3"/>
+      <c r="A55" s="37"/>
       <c r="B55" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C55" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="41"/>
+      <c r="C55" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="42"/>
     </row>
     <row r="56" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="3"/>
+      <c r="A56" s="37"/>
       <c r="B56" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C56" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="41"/>
+      <c r="C56" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="42"/>
     </row>
     <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="3"/>
+      <c r="A57" s="37"/>
       <c r="B57" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C57" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="41"/>
+      <c r="C57" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="38"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="42"/>
     </row>
     <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="3"/>
+      <c r="A58" s="37"/>
       <c r="B58" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
       <c r="F58" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G58" s="37"/>
-      <c r="H58" s="41"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="42"/>
     </row>
     <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="3"/>
+      <c r="A59" s="37"/>
       <c r="B59" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C59" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="41"/>
+      <c r="C59" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="38"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="42"/>
     </row>
     <row r="60" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="3"/>
+      <c r="A60" s="37"/>
       <c r="B60" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C60" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="37"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="41"/>
+      <c r="C60" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="42"/>
     </row>
     <row r="61" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="3"/>
+      <c r="A61" s="37"/>
       <c r="B61" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C61" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="41"/>
+      <c r="C61" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D61" s="38"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="42"/>
     </row>
     <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="3"/>
+      <c r="A62" s="37"/>
       <c r="B62" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C62" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="37"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="41"/>
+      <c r="C62" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="38"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="42"/>
     </row>
     <row r="63" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="3"/>
+      <c r="A63" s="37"/>
       <c r="B63" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C63" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="37"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="41"/>
+      <c r="C63" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="38"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="42"/>
     </row>
     <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="3"/>
+      <c r="A64" s="37"/>
       <c r="B64" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C64" s="37"/>
-      <c r="D64" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="37"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="41"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="38"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="42"/>
     </row>
     <row r="65" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="3"/>
+      <c r="A65" s="37"/>
       <c r="B65" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C65" s="37"/>
-      <c r="D65" s="37"/>
-      <c r="E65" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="41"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="38"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="42"/>
     </row>
     <row r="66" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C66" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="41"/>
+      <c r="C66" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="38"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="38"/>
+      <c r="H66" s="42"/>
     </row>
     <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="44"/>
+      <c r="A67" s="45"/>
       <c r="B67" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C67" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="41"/>
+      <c r="C67" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="38"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="38"/>
+      <c r="H67" s="42"/>
     </row>
     <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="3"/>
@@ -2077,23 +2249,23 @@
       <c r="H84" s="18"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="44"/>
-      <c r="C88" s="44"/>
-      <c r="D88" s="44"/>
-      <c r="E88" s="44"/>
-      <c r="F88" s="44"/>
-      <c r="G88" s="44"/>
-      <c r="H88" s="44"/>
+      <c r="B88" s="45"/>
+      <c r="C88" s="45"/>
+      <c r="D88" s="45"/>
+      <c r="E88" s="45"/>
+      <c r="F88" s="45"/>
+      <c r="G88" s="45"/>
+      <c r="H88" s="45"/>
     </row>
     <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="44"/>
-      <c r="C104" s="44"/>
-      <c r="D104" s="44"/>
-      <c r="E104" s="44"/>
-      <c r="F104" s="44"/>
-      <c r="G104" s="44"/>
-      <c r="H104" s="44"/>
+      <c r="B104" s="45"/>
+      <c r="C104" s="45"/>
+      <c r="D104" s="45"/>
+      <c r="E104" s="45"/>
+      <c r="F104" s="45"/>
+      <c r="G104" s="45"/>
+      <c r="H104" s="45"/>
     </row>
     <row r="107" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2149,7 +2321,7 @@
     <hyperlink ref="C50" r:id="rId41" display="yes"/>
     <hyperlink ref="C51" r:id="rId42" display="yes"/>
     <hyperlink ref="D52" r:id="rId43" display="yes"/>
-    <hyperlink ref="H52" r:id="rId44" display="https://wiki.ubuntu.com/Touch/Devices/tf300t"/>
+    <hyperlink ref="H52" r:id="rId44" display="See Also https://wiki.ubuntu.com/Touch/Devices/tf300t"/>
     <hyperlink ref="C53" r:id="rId45" display="yes"/>
     <hyperlink ref="C54" r:id="rId46" display="yes"/>
     <hyperlink ref="C55" r:id="rId47" display="yes"/>
@@ -2186,7 +2358,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F9" activeCellId="1" sqref="I53:R53 F9"/>
+      <selection pane="bottomLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.34375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2246,125 +2418,125 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="46" t="s">
         <v>86</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="41"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="42"/>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="48" t="s">
         <v>88</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38" t="s">
+      <c r="C5" s="38"/>
+      <c r="D5" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="41"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="42"/>
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="47"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="38" t="s">
+      <c r="C6" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="41"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="42"/>
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="47"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38" t="s">
+      <c r="C7" s="38"/>
+      <c r="D7" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="41"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="42"/>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="47"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C8" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="41"/>
+      <c r="C8" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="42"/>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="47"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="41"/>
+      <c r="C9" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="42"/>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="47"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="41"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="42"/>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="47"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="41"/>
+      <c r="C11" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="42"/>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="47"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="13" t="s">
         <v>97</v>
       </c>
@@ -2453,13 +2625,13 @@
     <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
     </row>
     <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2477,13 +2649,13 @@
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="44"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2556,4 +2728,1653 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:I107"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.34375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="21.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="42"/>
+    </row>
+    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="46"/>
+      <c r="B5" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="38"/>
+      <c r="G5" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="42"/>
+      <c r="I5" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="46"/>
+      <c r="B6" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="42"/>
+    </row>
+    <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="46"/>
+      <c r="B7" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="42"/>
+    </row>
+    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+    </row>
+    <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="50"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+    </row>
+    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="50"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+    </row>
+    <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="3"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="3"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="3"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="3"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="3"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="3"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="3"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="3"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+    </row>
+    <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+    </row>
+    <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C8:H8"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G4" r:id="rId1" display="yes"/>
+    <hyperlink ref="E5" r:id="rId2" display="yes"/>
+    <hyperlink ref="G5" r:id="rId3" display="yes"/>
+    <hyperlink ref="G6" r:id="rId4" display="yes"/>
+    <hyperlink ref="G7" r:id="rId5" display="yes"/>
+    <hyperlink ref="C8" r:id="rId6" display="opensource project (see more details)"/>
+    <hyperlink ref="C9" r:id="rId7" display="yes"/>
+    <hyperlink ref="H10" r:id="rId8" display="FirefoxOS(native)"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H107"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.34375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="21.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="3"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="3"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="3"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="3"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="3"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="3"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="3"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+    </row>
+    <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+    </row>
+    <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" display="yes"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H107"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.34375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="21.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="3"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="3"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="3"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="3"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="3"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="3"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="3"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+    </row>
+    <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+    </row>
+    <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" display="yes"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H107"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.34375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="21.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="38"/>
+      <c r="H4" s="42"/>
+    </row>
+    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="46"/>
+      <c r="B5" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="38"/>
+      <c r="H5" s="42"/>
+    </row>
+    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="48" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="42"/>
+    </row>
+    <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="48"/>
+      <c r="B7" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="48"/>
+      <c r="B8" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C8" s="38"/>
+      <c r="D8" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="42"/>
+    </row>
+    <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="48"/>
+      <c r="B9" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="42"/>
+    </row>
+    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="42"/>
+    </row>
+    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="48" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="42"/>
+    </row>
+    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+    </row>
+    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="3"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="3"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="3"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="3"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="3"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="3"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="3"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+    </row>
+    <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+    </row>
+    <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="C13:H13"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" display="AuroraOS(native)"/>
+    <hyperlink ref="F5" r:id="rId2" display="AuroraOS(native)"/>
+    <hyperlink ref="C6" r:id="rId3" display="yes"/>
+    <hyperlink ref="C7" r:id="rId4" display="yes"/>
+    <hyperlink ref="D7" r:id="rId5" display="yes"/>
+    <hyperlink ref="F7" r:id="rId6" display="yes"/>
+    <hyperlink ref="H7" r:id="rId7" display="Check this"/>
+    <hyperlink ref="D8" r:id="rId8" display="yes"/>
+    <hyperlink ref="C9" r:id="rId9" display="yes"/>
+    <hyperlink ref="D9" r:id="rId10" display="yes"/>
+    <hyperlink ref="C10" r:id="rId11" display="yes"/>
+    <hyperlink ref="C11" r:id="rId12" display="yes"/>
+    <hyperlink ref="C12" r:id="rId13" display="yes"/>
+    <hyperlink ref="C13" r:id="rId14" display="Check forum for details"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H107"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.34375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="21.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="48"/>
+      <c r="B5" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="0"/>
+      <c r="H5" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="48"/>
+      <c r="B6" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="48"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="42"/>
+    </row>
+    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="48"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="42"/>
+    </row>
+    <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="48"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="42"/>
+    </row>
+    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="48"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="42"/>
+    </row>
+    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="48"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="42"/>
+    </row>
+    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="48"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="3"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="3"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="3"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="3"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="3"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="3"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="3"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="3"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+    </row>
+    <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B40" s="45"/>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45"/>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+      <c r="G40" s="45"/>
+      <c r="H40" s="45"/>
+    </row>
+    <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="65" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="76" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="77" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="80" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1" display="yes"/>
+    <hyperlink ref="H4" r:id="rId2" display="FirefoxOS(native)"/>
+    <hyperlink ref="H5" r:id="rId3" display="FirefoxOS(native)"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
 </file>
--- a/pocketlinux.xlsx
+++ b/pocketlinux.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="170">
   <si>
     <t xml:space="preserve">List of mobile devices which support mobile linux distros</t>
   </si>
@@ -88,6 +88,9 @@
     <t xml:space="preserve">Liquid Zest 4G</t>
   </si>
   <si>
+    <t xml:space="preserve">Switch Alpha 12</t>
+  </si>
+  <si>
     <t xml:space="preserve">W810</t>
   </si>
   <si>
@@ -250,12 +253,21 @@
     <t xml:space="preserve">Transformer Infinity</t>
   </si>
   <si>
+    <t xml:space="preserve">Transformer Mini T103/T103H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes (x86)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Transformer Pad</t>
   </si>
   <si>
     <t xml:space="preserve">Transformer Pad 3G</t>
   </si>
   <si>
+    <t xml:space="preserve">X554L</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zenfone 2 (Z00L)</t>
   </si>
   <si>
@@ -286,6 +298,15 @@
     <t xml:space="preserve">Zenwatch 2</t>
   </si>
   <si>
+    <t xml:space="preserve">Chromebook Tablet T100PA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NixOS Mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Native ChromeOS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bliss</t>
   </si>
   <si>
@@ -364,12 +385,33 @@
     <t xml:space="preserve">Ace</t>
   </si>
   <si>
+    <t xml:space="preserve">CutiePi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CutiePi Tablet</t>
+  </si>
+  <si>
     <t xml:space="preserve">DNS</t>
   </si>
   <si>
     <t xml:space="preserve">AirTab 10 P110W/P110G</t>
   </si>
   <si>
+    <t xml:space="preserve">Dell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XPS 15 2-in-1 9575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latitude E7450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">idj7n</t>
+  </si>
+  <si>
     <t xml:space="preserve">Essentials</t>
   </si>
   <si>
@@ -415,12 +457,15 @@
     <t xml:space="preserve">F(x)tec</t>
   </si>
   <si>
-    <t xml:space="preserve">Pro1x</t>
+    <t xml:space="preserve">Pro1/Pro1x</t>
   </si>
   <si>
     <t xml:space="preserve">Check forum for details</t>
   </si>
   <si>
+    <t xml:space="preserve">GPD, Google, </t>
+  </si>
+  <si>
     <t xml:space="preserve">Geeksphone</t>
   </si>
   <si>
@@ -431,6 +476,66 @@
   </si>
   <si>
     <t xml:space="preserve">Revolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goclever</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orion 70L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nexus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nexus S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galaxy Nexus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes+ Nemo Mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nemo Mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nexus 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nexus 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nexus 5X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nexus 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nexus 6P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nexus 7 (2012) (common)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nexus 7 (2013)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nexus 7 (2013) LTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nexus 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nexus 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nest Hub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pixel </t>
   </si>
 </sst>
 </file>
@@ -559,14 +664,14 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+      <left/>
       <right/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
+      <left style="thin"/>
       <right/>
       <top style="thin"/>
       <bottom style="thin"/>
@@ -762,7 +867,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="64">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -779,31 +884,35 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -895,6 +1004,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -911,15 +1024,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -935,11 +1052,23 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -951,7 +1080,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -979,15 +1108,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1000,65 +1133,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0023FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF666666"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00A933"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9E0404"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF69EFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFDEC70C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1127,12 +1201,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H1048576"/>
+  <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H52" activeCellId="0" sqref="H52"/>
+      <selection pane="bottomLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.34375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1154,6 +1228,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
+      <c r="L1" s="4"/>
     </row>
     <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2"/>
@@ -1166,1116 +1241,1148 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16"/>
+      <c r="C4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12"/>
-      <c r="B5" s="17" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="20"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="21"/>
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12"/>
-      <c r="B6" s="21" t="s">
+      <c r="A6" s="13"/>
+      <c r="B6" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="26"/>
+      <c r="C6" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="27"/>
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12"/>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="26"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="27"/>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12"/>
-      <c r="B8" s="21" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="26"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="27"/>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12"/>
-      <c r="B9" s="28" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="32"/>
+      <c r="C9" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="33"/>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12"/>
-      <c r="B10" s="21" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="26"/>
+      <c r="C10" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="27"/>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12"/>
-      <c r="B11" s="21" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="26"/>
+      <c r="C11" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="27"/>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12"/>
-      <c r="B12" s="21" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="26"/>
+      <c r="C12" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="27"/>
     </row>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12"/>
-      <c r="B13" s="33" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="27"/>
     </row>
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="36"/>
+    </row>
+    <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="35" t="s">
+      <c r="B15" s="22" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12"/>
-      <c r="B15" s="21" t="s">
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="26"/>
     </row>
     <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12"/>
-      <c r="B16" s="21" t="s">
+      <c r="A16" s="13"/>
+      <c r="B16" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="24"/>
-      <c r="H16" s="26"/>
+      <c r="C16" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="27"/>
     </row>
     <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12"/>
-      <c r="B17" s="21" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="35" t="s">
-        <v>23</v>
-      </c>
+      <c r="C17" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="25"/>
+      <c r="H17" s="27"/>
     </row>
     <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12"/>
-      <c r="B18" s="21" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="35" t="s">
-        <v>23</v>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="37" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12"/>
-      <c r="B19" s="21" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="35" t="s">
-        <v>23</v>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="37" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12"/>
-      <c r="B20" s="21" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="35" t="s">
-        <v>23</v>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="37" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12"/>
-      <c r="B21" s="21" t="s">
+      <c r="A21" s="13"/>
+      <c r="B21" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="35" t="s">
-        <v>23</v>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="37" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12"/>
-      <c r="B22" s="21" t="s">
+      <c r="A22" s="13"/>
+      <c r="B22" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="35" t="s">
-        <v>23</v>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="37" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12"/>
-      <c r="B23" s="21" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="35" t="s">
-        <v>23</v>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="37" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12"/>
-      <c r="B24" s="21" t="s">
+      <c r="A24" s="13"/>
+      <c r="B24" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="35" t="s">
-        <v>23</v>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="37" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12"/>
-      <c r="B25" s="21" t="s">
+      <c r="A25" s="13"/>
+      <c r="B25" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="26"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="37" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12"/>
-      <c r="B26" s="21" t="s">
+      <c r="A26" s="13"/>
+      <c r="B26" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="26"/>
+      <c r="C26" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="27"/>
     </row>
     <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12"/>
-      <c r="B27" s="21" t="s">
+      <c r="A27" s="13"/>
+      <c r="B27" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="26"/>
+      <c r="C27" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="27"/>
     </row>
     <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="13"/>
+      <c r="B28" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="G28" s="24"/>
-      <c r="H28" s="26"/>
+      <c r="C28" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="27"/>
     </row>
     <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="G29" s="25"/>
+      <c r="H29" s="27"/>
+    </row>
+    <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="26"/>
-    </row>
-    <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="26"/>
+      <c r="C30" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="27"/>
     </row>
     <row r="31" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="26"/>
+      <c r="C31" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="27"/>
     </row>
     <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="26"/>
+      <c r="C32" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="27"/>
     </row>
     <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="26"/>
+      <c r="C33" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="27"/>
     </row>
     <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="26"/>
+      <c r="C34" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="27"/>
     </row>
     <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="26"/>
+      <c r="C35" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="27"/>
     </row>
     <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="26"/>
+      <c r="C36" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="27"/>
     </row>
     <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="26"/>
+      <c r="C37" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="27"/>
     </row>
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="26"/>
+      <c r="C38" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="27"/>
     </row>
     <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="26"/>
+      <c r="C39" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="27"/>
     </row>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="26"/>
+      <c r="C40" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="27"/>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
+      <c r="B41" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="C41" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="27"/>
+    </row>
+    <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="25" t="s">
+      <c r="B42" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="H41" s="26"/>
-    </row>
-    <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B42" s="21" t="s">
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="26"/>
+      <c r="H42" s="27"/>
     </row>
     <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="26"/>
+      <c r="C43" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="27"/>
     </row>
     <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="H44" s="26"/>
+      <c r="C44" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="27"/>
     </row>
     <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
+      <c r="B45" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="C45" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H45" s="27"/>
+    </row>
+    <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A46" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="36" t="s">
+      <c r="B46" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="G45" s="24"/>
-      <c r="H45" s="26"/>
-    </row>
-    <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="21" t="s">
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="G46" s="24"/>
-      <c r="H46" s="26"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="27"/>
     </row>
     <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="24"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="G47" s="24"/>
-      <c r="H47" s="26"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="G47" s="25"/>
+      <c r="H47" s="27"/>
     </row>
     <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="G48" s="24"/>
-      <c r="H48" s="26"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="G48" s="25"/>
+      <c r="H48" s="27"/>
     </row>
     <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
+      <c r="B49" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="G49" s="25"/>
+      <c r="H49" s="27"/>
+    </row>
+    <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C49" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="26"/>
-    </row>
-    <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="37"/>
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C50" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="26"/>
+      <c r="C50" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="27"/>
     </row>
     <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="37"/>
-      <c r="B51" s="21" t="s">
+      <c r="A51" s="40"/>
+      <c r="B51" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C51" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="26"/>
+      <c r="C51" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="27"/>
     </row>
     <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="37"/>
-      <c r="B52" s="4" t="s">
+      <c r="A52" s="40"/>
+      <c r="B52" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="C52" s="38"/>
-      <c r="D52" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="40" t="s">
+      <c r="C52" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="27"/>
+    </row>
+    <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="40"/>
+      <c r="B53" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="37"/>
-      <c r="B53" s="41" t="s">
+      <c r="C53" s="41"/>
+      <c r="D53" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="C53" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="40"/>
     </row>
     <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="37"/>
-      <c r="B54" s="41" t="s">
+      <c r="A54" s="40"/>
+      <c r="B54" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="C54" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="42"/>
+      <c r="C54" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="43"/>
     </row>
     <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="37"/>
-      <c r="B55" s="4" t="s">
+      <c r="A55" s="40"/>
+      <c r="B55" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="C55" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="42"/>
+      <c r="C55" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="45"/>
     </row>
     <row r="56" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="37"/>
-      <c r="B56" s="4" t="s">
+      <c r="A56" s="40"/>
+      <c r="B56" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C56" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="42"/>
+      <c r="C56" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="45"/>
     </row>
     <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="37"/>
-      <c r="B57" s="4" t="s">
+      <c r="A57" s="40"/>
+      <c r="B57" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C57" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="42"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="G57" s="41"/>
+      <c r="H57" s="45"/>
     </row>
     <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="37"/>
-      <c r="B58" s="4" t="s">
+      <c r="A58" s="40"/>
+      <c r="B58" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="45"/>
+    </row>
+    <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="40"/>
+      <c r="B59" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="45"/>
+    </row>
+    <row r="60" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="40"/>
+      <c r="B60" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="41"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" s="38"/>
-      <c r="H58" s="42"/>
-    </row>
-    <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="37"/>
-      <c r="B59" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C59" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="42"/>
-    </row>
-    <row r="60" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="37"/>
-      <c r="B60" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C60" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" s="38"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="42"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="45"/>
     </row>
     <row r="61" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="37"/>
-      <c r="B61" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C61" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="42"/>
+      <c r="A61" s="40"/>
+      <c r="B61" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" s="41"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="41"/>
+      <c r="H61" s="45"/>
     </row>
     <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="37"/>
-      <c r="B62" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C62" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="38"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="42"/>
+      <c r="A62" s="40"/>
+      <c r="B62" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="41"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="41"/>
+      <c r="H62" s="45"/>
     </row>
     <row r="63" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="37"/>
-      <c r="B63" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C63" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="38"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="38"/>
-      <c r="G63" s="38"/>
-      <c r="H63" s="42"/>
+      <c r="A63" s="40"/>
+      <c r="B63" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="45"/>
     </row>
     <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="37"/>
-      <c r="B64" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C64" s="38"/>
-      <c r="D64" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" s="38"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="38"/>
-      <c r="H64" s="42"/>
+      <c r="A64" s="40"/>
+      <c r="B64" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="45"/>
     </row>
     <row r="65" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="37"/>
-      <c r="B65" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C65" s="38"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F65" s="38"/>
-      <c r="G65" s="38"/>
-      <c r="H65" s="42"/>
+      <c r="A65" s="40"/>
+      <c r="B65" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="45"/>
     </row>
     <row r="66" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B66" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C66" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="38"/>
-      <c r="E66" s="38"/>
-      <c r="F66" s="38"/>
-      <c r="G66" s="38"/>
-      <c r="H66" s="42"/>
+      <c r="A66" s="40"/>
+      <c r="B66" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="45"/>
     </row>
     <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="45"/>
-      <c r="B67" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C67" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" s="38"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="38"/>
-      <c r="H67" s="42"/>
+      <c r="A67" s="40"/>
+      <c r="B67" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" s="41"/>
+      <c r="D67" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="41"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="45"/>
     </row>
     <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B68" s="3"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
+      <c r="A68" s="40"/>
+      <c r="B68" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C68" s="41"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="41"/>
+      <c r="G68" s="41"/>
+      <c r="H68" s="45"/>
     </row>
     <row r="69" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B69" s="3"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
+      <c r="A69" s="40"/>
+      <c r="B69" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="41"/>
+      <c r="E69" s="41"/>
+      <c r="F69" s="41"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="45"/>
     </row>
     <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B70" s="3"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
+      <c r="A70" s="40"/>
+      <c r="B70" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="45"/>
     </row>
     <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B71" s="3"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
+      <c r="A71" s="48"/>
+      <c r="B71" s="49" t="s">
+        <v>90</v>
+      </c>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="50" t="s">
+        <v>91</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B72" s="3"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
+      <c r="F72" s="19"/>
+      <c r="G72" s="19"/>
+      <c r="H72" s="19"/>
     </row>
     <row r="73" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B73" s="3"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18"/>
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
     </row>
     <row r="74" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B74" s="3"/>
-      <c r="C74" s="18"/>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
+      <c r="C74" s="19"/>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
     </row>
     <row r="75" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B75" s="3"/>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="18"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19"/>
     </row>
     <row r="76" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B76" s="3"/>
-      <c r="C76" s="18"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
     </row>
     <row r="77" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B77" s="3"/>
-      <c r="C77" s="18"/>
-      <c r="D77" s="18"/>
-      <c r="E77" s="18"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="18"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="19"/>
     </row>
     <row r="78" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B78" s="3"/>
-      <c r="C78" s="18"/>
-      <c r="D78" s="18"/>
-      <c r="E78" s="18"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="18"/>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="19"/>
+      <c r="H78" s="19"/>
     </row>
     <row r="79" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B79" s="3"/>
-      <c r="C79" s="18"/>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="19"/>
+      <c r="H79" s="19"/>
     </row>
     <row r="80" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B80" s="3"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
+      <c r="F80" s="19"/>
+      <c r="G80" s="19"/>
+      <c r="H80" s="19"/>
     </row>
     <row r="81" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B81" s="3"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="19"/>
+      <c r="G81" s="19"/>
+      <c r="H81" s="19"/>
     </row>
     <row r="82" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B82" s="3"/>
-      <c r="C82" s="18"/>
-      <c r="D82" s="18"/>
-      <c r="E82" s="18"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="18"/>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="19"/>
+      <c r="G82" s="19"/>
+      <c r="H82" s="19"/>
     </row>
     <row r="83" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B83" s="3"/>
-      <c r="C83" s="18"/>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="19"/>
+      <c r="G83" s="19"/>
+      <c r="H83" s="19"/>
     </row>
     <row r="84" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B84" s="3"/>
-      <c r="C84" s="18"/>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="45"/>
-      <c r="C88" s="45"/>
-      <c r="D88" s="45"/>
-      <c r="E88" s="45"/>
-      <c r="F88" s="45"/>
-      <c r="G88" s="45"/>
-      <c r="H88" s="45"/>
-    </row>
-    <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="45"/>
-      <c r="C104" s="45"/>
-      <c r="D104" s="45"/>
-      <c r="E104" s="45"/>
-      <c r="F104" s="45"/>
-      <c r="G104" s="45"/>
-      <c r="H104" s="45"/>
-    </row>
-    <row r="107" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="19"/>
+      <c r="G84" s="19"/>
+      <c r="H84" s="19"/>
+    </row>
+    <row r="85" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B85" s="3"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="19"/>
+      <c r="H85" s="19"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="51"/>
+      <c r="C89" s="51"/>
+      <c r="D89" s="51"/>
+      <c r="E89" s="51"/>
+      <c r="F89" s="51"/>
+      <c r="G89" s="51"/>
+      <c r="H89" s="51"/>
+    </row>
+    <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="51"/>
+      <c r="C105" s="51"/>
+      <c r="D105" s="51"/>
+      <c r="E105" s="51"/>
+      <c r="F105" s="51"/>
+      <c r="G105" s="51"/>
+      <c r="H105" s="51"/>
+    </row>
+    <row r="108" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:C2"/>
-    <mergeCell ref="A4:A13"/>
-    <mergeCell ref="A14:A27"/>
-    <mergeCell ref="A50:A65"/>
+    <mergeCell ref="A4:A14"/>
+    <mergeCell ref="A15:A28"/>
+    <mergeCell ref="A51:A70"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" display="yes"/>
@@ -2290,16 +2397,16 @@
     <hyperlink ref="C11" r:id="rId10" display="yes"/>
     <hyperlink ref="C12" r:id="rId11" display="yes"/>
     <hyperlink ref="G13" r:id="rId12" display="yes"/>
-    <hyperlink ref="C15" r:id="rId13" display="yes"/>
+    <hyperlink ref="G14" r:id="rId13" display="yes"/>
     <hyperlink ref="C16" r:id="rId14" display="yes"/>
-    <hyperlink ref="F16" r:id="rId15" display="yes"/>
-    <hyperlink ref="H22" r:id="rId16" display="FirefoxOS(native)"/>
+    <hyperlink ref="C17" r:id="rId15" display="yes"/>
+    <hyperlink ref="F17" r:id="rId16" display="yes"/>
     <hyperlink ref="H23" r:id="rId17" display="FirefoxOS(native)"/>
     <hyperlink ref="H24" r:id="rId18" display="FirefoxOS(native)"/>
-    <hyperlink ref="C25" r:id="rId19" display="yes"/>
+    <hyperlink ref="H25" r:id="rId19" display="FirefoxOS(native)"/>
     <hyperlink ref="C26" r:id="rId20" display="yes"/>
     <hyperlink ref="C27" r:id="rId21" display="yes"/>
-    <hyperlink ref="C29" r:id="rId22" display="yes"/>
+    <hyperlink ref="C28" r:id="rId22" display="yes"/>
     <hyperlink ref="C30" r:id="rId23" display="yes"/>
     <hyperlink ref="C31" r:id="rId24" display="yes"/>
     <hyperlink ref="C32" r:id="rId25" display="yes"/>
@@ -2311,32 +2418,36 @@
     <hyperlink ref="C38" r:id="rId31" display="yes"/>
     <hyperlink ref="C39" r:id="rId32" display="yes"/>
     <hyperlink ref="C40" r:id="rId33" display="yes"/>
-    <hyperlink ref="G41" r:id="rId34" display="Asahi Linux"/>
-    <hyperlink ref="C42" r:id="rId35" display="yes"/>
+    <hyperlink ref="C41" r:id="rId34" display="yes"/>
+    <hyperlink ref="G42" r:id="rId35" display="Asahi Linux"/>
     <hyperlink ref="C43" r:id="rId36" display="yes"/>
     <hyperlink ref="C44" r:id="rId37" display="yes"/>
-    <hyperlink ref="G44" r:id="rId38" display="Asahi Linux"/>
-    <hyperlink ref="F48" r:id="rId39" display="AuroraOS(native)"/>
-    <hyperlink ref="C49" r:id="rId40" display="yes"/>
+    <hyperlink ref="C45" r:id="rId38" display="yes"/>
+    <hyperlink ref="G45" r:id="rId39" display="Asahi Linux"/>
+    <hyperlink ref="F49" r:id="rId40" display="AuroraOS(native)"/>
     <hyperlink ref="C50" r:id="rId41" display="yes"/>
     <hyperlink ref="C51" r:id="rId42" display="yes"/>
-    <hyperlink ref="D52" r:id="rId43" display="yes"/>
-    <hyperlink ref="H52" r:id="rId44" display="See Also https://wiki.ubuntu.com/Touch/Devices/tf300t"/>
-    <hyperlink ref="C53" r:id="rId45" display="yes"/>
+    <hyperlink ref="C52" r:id="rId43" display="yes"/>
+    <hyperlink ref="D53" r:id="rId44" display="yes"/>
+    <hyperlink ref="H53" r:id="rId45" display="See Also https://wiki.ubuntu.com/Touch/Devices/tf300t"/>
     <hyperlink ref="C54" r:id="rId46" display="yes"/>
     <hyperlink ref="C55" r:id="rId47" display="yes"/>
     <hyperlink ref="C56" r:id="rId48" display="yes"/>
-    <hyperlink ref="C57" r:id="rId49" display="yes"/>
-    <hyperlink ref="F58" r:id="rId50" display="yes"/>
+    <hyperlink ref="F57" r:id="rId49" display="yes (x86)"/>
+    <hyperlink ref="C58" r:id="rId50" display="yes"/>
     <hyperlink ref="C59" r:id="rId51" display="yes"/>
-    <hyperlink ref="C60" r:id="rId52" display="yes"/>
-    <hyperlink ref="C61" r:id="rId53" display="yes"/>
+    <hyperlink ref="F60" r:id="rId52" display="yes (x86)"/>
+    <hyperlink ref="F61" r:id="rId53" display="yes"/>
     <hyperlink ref="C62" r:id="rId54" display="yes"/>
     <hyperlink ref="C63" r:id="rId55" display="yes"/>
-    <hyperlink ref="D64" r:id="rId56" display="yes"/>
-    <hyperlink ref="E65" r:id="rId57" display="yes"/>
+    <hyperlink ref="C64" r:id="rId56" display="yes"/>
+    <hyperlink ref="C65" r:id="rId57" display="yes"/>
     <hyperlink ref="C66" r:id="rId58" display="yes"/>
-    <hyperlink ref="C67" r:id="rId59" display="yes"/>
+    <hyperlink ref="D67" r:id="rId59" display="yes"/>
+    <hyperlink ref="E68" r:id="rId60" display="yes"/>
+    <hyperlink ref="C69" r:id="rId61" display="yes"/>
+    <hyperlink ref="C70" r:id="rId62" display="yes"/>
+    <hyperlink ref="H71" r:id="rId63" display="NixOS Mobile"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2358,7 +2469,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.34375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2392,246 +2503,246 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="46" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="42"/>
+      <c r="A4" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="48" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="42"/>
+      <c r="A5" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="45"/>
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="48"/>
-      <c r="B6" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="42"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="45"/>
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="48"/>
-      <c r="B7" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="42"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="42" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="45"/>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="48"/>
-      <c r="B8" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="42"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="45"/>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="48"/>
-      <c r="B9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="42"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="45"/>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="48"/>
-      <c r="B10" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="42"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="D10" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="45"/>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="48"/>
-      <c r="B11" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="42"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="45"/>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="48"/>
-      <c r="B12" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="3"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="3"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="3"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
     </row>
     <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="3"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="3"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
     </row>
     <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="3"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
     </row>
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="3"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
     </row>
     <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="3"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
     </row>
     <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
     </row>
     <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2649,13 +2760,13 @@
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2737,10 +2848,10 @@
   </sheetPr>
   <dimension ref="A1:I107"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+      <selection pane="bottomLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.34375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2748,7 +2859,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="21.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2774,247 +2885,255 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="42"/>
+      <c r="A4" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="46"/>
-      <c r="B5" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="38"/>
-      <c r="G5" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="0" t="s">
-        <v>101</v>
+      <c r="A5" s="52"/>
+      <c r="B5" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="41"/>
+      <c r="G5" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="45"/>
+      <c r="I5" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="46"/>
-      <c r="B6" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="42"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="45"/>
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="46"/>
-      <c r="B7" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="42"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="45"/>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="49" t="s">
-        <v>106</v>
-      </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
+      <c r="A8" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="48" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="11" t="s">
-        <v>109</v>
+      <c r="A9" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="12" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="11" t="s">
-        <v>23</v>
+      <c r="A10" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="50"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
+      <c r="A11" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="50"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
     </row>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="3"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="3"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="3"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
     </row>
     <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="3"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="3"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
     </row>
     <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="3"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
     </row>
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="3"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
     </row>
     <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="3"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
     </row>
     <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
     </row>
     <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3032,13 +3151,13 @@
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3087,20 +3206,22 @@
     <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="107" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C11:H11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G4" r:id="rId1" display="yes"/>
     <hyperlink ref="E5" r:id="rId2" display="yes"/>
     <hyperlink ref="G5" r:id="rId3" display="yes"/>
-    <hyperlink ref="G6" r:id="rId4" display="yes"/>
-    <hyperlink ref="G7" r:id="rId5" display="yes"/>
-    <hyperlink ref="C8" r:id="rId6" display="opensource project (see more details)"/>
-    <hyperlink ref="C9" r:id="rId7" display="yes"/>
-    <hyperlink ref="H10" r:id="rId8" display="FirefoxOS(native)"/>
+    <hyperlink ref="C6" r:id="rId4" display="yes"/>
+    <hyperlink ref="G6" r:id="rId5" display="yes"/>
+    <hyperlink ref="G7" r:id="rId6" display="yes"/>
+    <hyperlink ref="C8" r:id="rId7" display="opensource project (see more details)"/>
+    <hyperlink ref="C9" r:id="rId8" display="yes"/>
+    <hyperlink ref="H10" r:id="rId9" display="FirefoxOS(native)"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3122,7 +3243,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.34375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3130,7 +3251,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="21.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3156,121 +3277,140 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C4" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
+        <v>122</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="3"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
+      <c r="A5" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="3"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="3"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="A7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="3"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="3"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="3"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="3"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
     </row>
     <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3288,13 +3428,13 @@
     <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="31" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
     </row>
     <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3352,11 +3492,15 @@
     <row r="91" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="107" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:C2"/>
+    <mergeCell ref="A5:A6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" display="yes"/>
+    <hyperlink ref="F5" r:id="rId2" display="yes (x86)"/>
+    <hyperlink ref="F6" r:id="rId3" display="yes (x86)"/>
+    <hyperlink ref="G7" r:id="rId4" display="yes"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3386,7 +3530,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="21.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3412,121 +3556,121 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
+        <v>129</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B5" s="3"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="3"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="3"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B8" s="3"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B9" s="3"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B10" s="3"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="3"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
     </row>
     <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3544,13 +3688,13 @@
     <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="31" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="45"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
     </row>
     <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3634,7 +3778,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.34375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3642,7 +3786,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="21.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3668,265 +3812,265 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="42"/>
+      <c r="A4" s="52" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" s="41"/>
+      <c r="H4" s="45"/>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="46"/>
-      <c r="B5" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="38"/>
-      <c r="H5" s="42"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="41"/>
+      <c r="H5" s="45"/>
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="48" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6" s="4" t="n">
+      <c r="A6" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="42"/>
+      <c r="C6" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="45"/>
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="48"/>
-      <c r="B7" s="5" t="n">
+      <c r="A7" s="54"/>
+      <c r="B7" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C7" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="38"/>
-      <c r="H7" s="11" t="s">
-        <v>120</v>
+      <c r="C7" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="41"/>
+      <c r="H7" s="12" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="48"/>
-      <c r="B8" s="5" t="n">
+      <c r="A8" s="54"/>
+      <c r="B8" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="C8" s="38"/>
-      <c r="D8" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="42"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="45"/>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="48"/>
-      <c r="B9" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="42"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="45"/>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="42"/>
+      <c r="A10" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="45"/>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="48" t="s">
-        <v>124</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="42"/>
+      <c r="A11" s="54" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="45"/>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
+      <c r="A12" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="C13" s="56" t="s">
-        <v>130</v>
-      </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
+      <c r="A13" s="61" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
     </row>
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="3"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="3"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
     </row>
     <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="3"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="3"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
     </row>
     <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="3"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
     </row>
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="3"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
     </row>
     <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="3"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
     </row>
     <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+      <c r="H24" s="51"/>
     </row>
     <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3944,13 +4088,13 @@
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4038,10 +4182,10 @@
   </sheetPr>
   <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.34375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4049,7 +4193,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="3" style="1" width="21.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4058,7 +4202,9 @@
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>145</v>
+      </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -4075,220 +4221,311 @@
       <c r="H2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="11" t="s">
-        <v>23</v>
+      <c r="A4" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="48"/>
-      <c r="B5" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="0"/>
-      <c r="H5" s="11" t="s">
-        <v>23</v>
+      <c r="A5" s="54"/>
+      <c r="B5" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="H5" s="12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="48"/>
-      <c r="B6" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="11" t="s">
-        <v>23</v>
+      <c r="A6" s="54"/>
+      <c r="B6" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="48"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="42"/>
+      <c r="A7" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="45"/>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="48"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="42"/>
+      <c r="A8" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="45"/>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="48"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="42"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="45"/>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="48"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="42"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="41"/>
+      <c r="F10" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" s="41"/>
+      <c r="H10" s="45" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="48"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="42"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="41"/>
+      <c r="H11" s="45"/>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="48"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="41"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="3"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
+      <c r="B13" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="3"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
+      <c r="B14" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="3"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
+      <c r="B15" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
     </row>
     <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="3"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
+      <c r="B16" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
     </row>
     <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="3"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
+      <c r="B17" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
     </row>
     <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="3"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+      <c r="B18" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
     </row>
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="3"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
+      <c r="B19" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
     </row>
     <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="3"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-    </row>
-    <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="B20" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+    </row>
+    <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+    </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
     </row>
     <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4306,13 +4543,13 @@
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="45"/>
-      <c r="C40" s="45"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="45"/>
-      <c r="F40" s="45"/>
-      <c r="G40" s="45"/>
-      <c r="H40" s="45"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4368,6 +4605,20 @@
     <hyperlink ref="C4" r:id="rId1" display="yes"/>
     <hyperlink ref="H4" r:id="rId2" display="FirefoxOS(native)"/>
     <hyperlink ref="H5" r:id="rId3" display="FirefoxOS(native)"/>
+    <hyperlink ref="C7" r:id="rId4" display="yes"/>
+    <hyperlink ref="C9" r:id="rId5" display="yes"/>
+    <hyperlink ref="D9" r:id="rId6" display="yes"/>
+    <hyperlink ref="C10" r:id="rId7" display="yes"/>
+    <hyperlink ref="D10" r:id="rId8" display="yes"/>
+    <hyperlink ref="H10" r:id="rId9" display="Nemo Mobile"/>
+    <hyperlink ref="D11" r:id="rId10" display="yes"/>
+    <hyperlink ref="F11" r:id="rId11" display="yes"/>
+    <hyperlink ref="E12" r:id="rId12" display="yes"/>
+    <hyperlink ref="F12" r:id="rId13" display="yes"/>
+    <hyperlink ref="C16" r:id="rId14" display="yes"/>
+    <hyperlink ref="C17" r:id="rId15" display="yes"/>
+    <hyperlink ref="C18" r:id="rId16" display="yes"/>
+    <hyperlink ref="G21" r:id="rId17" display="yes"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/pocketlinux.xlsx
+++ b/pocketlinux.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="173">
   <si>
     <t xml:space="preserve">List of mobile devices which support mobile linux distros</t>
   </si>
@@ -160,6 +160,9 @@
     <t xml:space="preserve">Fire 7 (2017)</t>
   </si>
   <si>
+    <t xml:space="preserve">NixOS Mobile</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fire 7 (2019)</t>
   </si>
   <si>
@@ -301,9 +304,6 @@
     <t xml:space="preserve">Chromebook Tablet T100PA</t>
   </si>
   <si>
-    <t xml:space="preserve">NixOS Mobile</t>
-  </si>
-  <si>
     <t xml:space="preserve">Native ChromeOS</t>
   </si>
   <si>
@@ -391,6 +391,9 @@
     <t xml:space="preserve">CutiePi Tablet</t>
   </si>
   <si>
+    <t xml:space="preserve">yes, opensource project</t>
+  </si>
+  <si>
     <t xml:space="preserve">DNS</t>
   </si>
   <si>
@@ -496,12 +499,12 @@
     <t xml:space="preserve">Galaxy Nexus</t>
   </si>
   <si>
-    <t xml:space="preserve">yes+ Nemo Mobile</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nemo Mobile</t>
   </si>
   <si>
+    <t xml:space="preserve">LuneOS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nexus 4</t>
   </si>
   <si>
@@ -536,6 +539,12 @@
   </si>
   <si>
     <t xml:space="preserve">Pixel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pixel XL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pixel 2</t>
   </si>
 </sst>
 </file>
@@ -867,7 +876,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="68">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1004,10 +1013,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1120,7 +1125,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1204,9 +1229,9 @@
   <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.34375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1405,7 +1430,7 @@
       <c r="B13" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="34"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
@@ -1416,7 +1441,7 @@
     </row>
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="13"/>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="34" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="19"/>
@@ -1426,7 +1451,7 @@
       <c r="G14" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="36"/>
+      <c r="H14" s="35"/>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="s">
@@ -1440,7 +1465,7 @@
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="37" t="s">
+      <c r="H15" s="36" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1468,7 +1493,7 @@
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
-      <c r="F17" s="38" t="s">
+      <c r="F17" s="37" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="25"/>
@@ -1484,7 +1509,7 @@
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="37" t="s">
+      <c r="H18" s="36" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1498,7 +1523,7 @@
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="37" t="s">
+      <c r="H19" s="36" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1512,7 +1537,7 @@
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="37" t="s">
+      <c r="H20" s="36" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1526,7 +1551,7 @@
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="37" t="s">
+      <c r="H21" s="36" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1540,7 +1565,7 @@
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="37" t="s">
+      <c r="H22" s="36" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1554,7 +1579,7 @@
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="37" t="s">
+      <c r="H23" s="36" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1568,7 +1593,7 @@
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
-      <c r="H24" s="37" t="s">
+      <c r="H24" s="36" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1582,7 +1607,7 @@
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
-      <c r="H25" s="37" t="s">
+      <c r="H25" s="36" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1638,7 +1663,7 @@
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
       <c r="E29" s="25"/>
-      <c r="F29" s="38" t="s">
+      <c r="F29" s="37" t="s">
         <v>40</v>
       </c>
       <c r="G29" s="25"/>
@@ -1671,11 +1696,13 @@
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
-      <c r="H31" s="27"/>
+      <c r="H31" s="36" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32" s="23" t="s">
         <v>11</v>
@@ -1688,7 +1715,7 @@
     </row>
     <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C33" s="23" t="s">
         <v>11</v>
@@ -1701,7 +1728,7 @@
     </row>
     <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C34" s="23" t="s">
         <v>11</v>
@@ -1714,7 +1741,7 @@
     </row>
     <row r="35" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C35" s="23" t="s">
         <v>11</v>
@@ -1727,7 +1754,7 @@
     </row>
     <row r="36" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="22" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C36" s="23" t="s">
         <v>11</v>
@@ -1740,7 +1767,7 @@
     </row>
     <row r="37" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C37" s="23" t="s">
         <v>11</v>
@@ -1753,7 +1780,7 @@
     </row>
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="22" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C38" s="23" t="s">
         <v>11</v>
@@ -1766,7 +1793,7 @@
     </row>
     <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="22" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C39" s="23" t="s">
         <v>11</v>
@@ -1779,7 +1806,7 @@
     </row>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C40" s="23" t="s">
         <v>11</v>
@@ -1792,7 +1819,7 @@
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C41" s="23" t="s">
         <v>11</v>
@@ -1805,23 +1832,23 @@
     </row>
     <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B42" s="22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
       <c r="E42" s="25"/>
       <c r="F42" s="25"/>
       <c r="G42" s="26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H42" s="27"/>
     </row>
     <row r="43" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C43" s="23" t="s">
         <v>11</v>
@@ -1834,7 +1861,7 @@
     </row>
     <row r="44" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="22" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C44" s="23" t="s">
         <v>11</v>
@@ -1847,7 +1874,7 @@
     </row>
     <row r="45" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C45" s="23" t="s">
         <v>11</v>
@@ -1856,71 +1883,71 @@
       <c r="E45" s="25"/>
       <c r="F45" s="25"/>
       <c r="G45" s="26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H45" s="27"/>
     </row>
     <row r="46" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="39" t="s">
-        <v>60</v>
+      <c r="A46" s="38" t="s">
+        <v>61</v>
       </c>
       <c r="B46" s="22" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
       <c r="E46" s="25"/>
-      <c r="F46" s="38" t="s">
-        <v>62</v>
+      <c r="F46" s="37" t="s">
+        <v>63</v>
       </c>
       <c r="G46" s="25"/>
       <c r="H46" s="27"/>
     </row>
     <row r="47" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
       <c r="E47" s="25"/>
-      <c r="F47" s="38" t="s">
-        <v>62</v>
+      <c r="F47" s="37" t="s">
+        <v>63</v>
       </c>
       <c r="G47" s="25"/>
       <c r="H47" s="27"/>
     </row>
     <row r="48" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
       <c r="E48" s="25"/>
-      <c r="F48" s="38" t="s">
-        <v>62</v>
+      <c r="F48" s="37" t="s">
+        <v>63</v>
       </c>
       <c r="G48" s="25"/>
       <c r="H48" s="27"/>
     </row>
     <row r="49" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
       <c r="E49" s="25"/>
-      <c r="F49" s="38" t="s">
-        <v>62</v>
+      <c r="F49" s="37" t="s">
+        <v>63</v>
       </c>
       <c r="G49" s="25"/>
       <c r="H49" s="27"/>
     </row>
     <row r="50" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="39" t="s">
-        <v>66</v>
+      <c r="A50" s="38" t="s">
+        <v>67</v>
       </c>
       <c r="B50" s="22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C50" s="23" t="s">
         <v>11</v>
@@ -1932,9 +1959,9 @@
       <c r="H50" s="27"/>
     </row>
     <row r="51" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="40"/>
+      <c r="A51" s="39"/>
       <c r="B51" s="22" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C51" s="23" t="s">
         <v>11</v>
@@ -1946,9 +1973,9 @@
       <c r="H51" s="27"/>
     </row>
     <row r="52" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="40"/>
+      <c r="A52" s="39"/>
       <c r="B52" s="22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C52" s="23" t="s">
         <v>11</v>
@@ -1960,25 +1987,25 @@
       <c r="H52" s="27"/>
     </row>
     <row r="53" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="40"/>
+      <c r="A53" s="39"/>
       <c r="B53" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C53" s="41"/>
-      <c r="D53" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="43" t="s">
         <v>71</v>
       </c>
+      <c r="C53" s="40"/>
+      <c r="D53" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="42" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="40"/>
-      <c r="B54" s="44" t="s">
-        <v>72</v>
+      <c r="A54" s="39"/>
+      <c r="B54" s="43" t="s">
+        <v>73</v>
       </c>
       <c r="C54" s="23" t="s">
         <v>11</v>
@@ -1987,12 +2014,12 @@
       <c r="E54" s="25"/>
       <c r="F54" s="25"/>
       <c r="G54" s="25"/>
-      <c r="H54" s="43"/>
+      <c r="H54" s="42"/>
     </row>
     <row r="55" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="40"/>
-      <c r="B55" s="44" t="s">
-        <v>73</v>
+      <c r="A55" s="39"/>
+      <c r="B55" s="43" t="s">
+        <v>74</v>
       </c>
       <c r="C55" s="23" t="s">
         <v>11</v>
@@ -2001,230 +2028,234 @@
       <c r="E55" s="25"/>
       <c r="F55" s="25"/>
       <c r="G55" s="25"/>
-      <c r="H55" s="45"/>
+      <c r="H55" s="44"/>
     </row>
     <row r="56" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="40"/>
+      <c r="A56" s="39"/>
       <c r="B56" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C56" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D56" s="41"/>
-      <c r="E56" s="41"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="45"/>
+        <v>75</v>
+      </c>
+      <c r="C56" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="40"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="44"/>
     </row>
     <row r="57" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="40"/>
+      <c r="A57" s="39"/>
       <c r="B57" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="41"/>
+        <v>76</v>
+      </c>
+      <c r="C57" s="40"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="40"/>
       <c r="F57" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G57" s="41"/>
-      <c r="H57" s="45"/>
+        <v>77</v>
+      </c>
+      <c r="G57" s="40"/>
+      <c r="H57" s="44"/>
     </row>
     <row r="58" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="40"/>
+      <c r="A58" s="39"/>
       <c r="B58" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="40"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="44"/>
+    </row>
+    <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="39"/>
+      <c r="B59" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C59" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="44"/>
+    </row>
+    <row r="60" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="39"/>
+      <c r="B60" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="40"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="41"/>
-      <c r="E58" s="41"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="41"/>
-      <c r="H58" s="45"/>
-    </row>
-    <row r="59" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="40"/>
-      <c r="B59" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C59" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D59" s="41"/>
-      <c r="E59" s="41"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="41"/>
-      <c r="H59" s="45"/>
-    </row>
-    <row r="60" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="40"/>
-      <c r="B60" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C60" s="41"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="41"/>
-      <c r="F60" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G60" s="41"/>
-      <c r="H60" s="45"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="44"/>
     </row>
     <row r="61" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="40"/>
+      <c r="A61" s="39"/>
       <c r="B61" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C61" s="41"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="41"/>
+        <v>81</v>
+      </c>
+      <c r="C61" s="40"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="40"/>
       <c r="F61" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G61" s="41"/>
-      <c r="H61" s="45"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="44"/>
     </row>
     <row r="62" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="40"/>
+      <c r="A62" s="39"/>
       <c r="B62" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C62" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" s="41"/>
-      <c r="E62" s="41"/>
-      <c r="F62" s="41"/>
-      <c r="G62" s="41"/>
-      <c r="H62" s="45"/>
+        <v>82</v>
+      </c>
+      <c r="C62" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="40"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="44"/>
     </row>
     <row r="63" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="40"/>
+      <c r="A63" s="39"/>
       <c r="B63" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C63" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="41"/>
-      <c r="E63" s="41"/>
-      <c r="F63" s="41"/>
-      <c r="G63" s="41"/>
-      <c r="H63" s="45"/>
+        <v>83</v>
+      </c>
+      <c r="C63" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="40"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="12" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="40"/>
+      <c r="A64" s="39"/>
       <c r="B64" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C64" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" s="41"/>
-      <c r="E64" s="41"/>
-      <c r="F64" s="41"/>
-      <c r="G64" s="41"/>
-      <c r="H64" s="45"/>
+        <v>84</v>
+      </c>
+      <c r="C64" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D64" s="40"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="44"/>
     </row>
     <row r="65" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="40"/>
+      <c r="A65" s="39"/>
       <c r="B65" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C65" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" s="41"/>
-      <c r="E65" s="41"/>
-      <c r="F65" s="41"/>
-      <c r="G65" s="41"/>
-      <c r="H65" s="45"/>
+        <v>85</v>
+      </c>
+      <c r="C65" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D65" s="40"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="44"/>
     </row>
     <row r="66" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="40"/>
+      <c r="A66" s="39"/>
       <c r="B66" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C66" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" s="41"/>
-      <c r="E66" s="41"/>
-      <c r="F66" s="41"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="45"/>
+        <v>86</v>
+      </c>
+      <c r="C66" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D66" s="40"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="40"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="44"/>
     </row>
     <row r="67" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="40"/>
+      <c r="A67" s="39"/>
       <c r="B67" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C67" s="41"/>
-      <c r="D67" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" s="41"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="41"/>
-      <c r="H67" s="45"/>
+        <v>87</v>
+      </c>
+      <c r="C67" s="40"/>
+      <c r="D67" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="40"/>
+      <c r="F67" s="40"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="12" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="40"/>
+      <c r="A68" s="39"/>
       <c r="B68" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C68" s="41"/>
-      <c r="D68" s="41"/>
-      <c r="E68" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="F68" s="41"/>
-      <c r="G68" s="41"/>
-      <c r="H68" s="45"/>
+        <v>88</v>
+      </c>
+      <c r="C68" s="40"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="44"/>
     </row>
     <row r="69" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="40"/>
+      <c r="A69" s="39"/>
       <c r="B69" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C69" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" s="41"/>
-      <c r="E69" s="41"/>
-      <c r="F69" s="41"/>
-      <c r="G69" s="41"/>
-      <c r="H69" s="45"/>
+        <v>89</v>
+      </c>
+      <c r="C69" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D69" s="40"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="40"/>
+      <c r="G69" s="40"/>
+      <c r="H69" s="44"/>
     </row>
     <row r="70" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="40"/>
+      <c r="A70" s="39"/>
       <c r="B70" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C70" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" s="41"/>
-      <c r="E70" s="41"/>
-      <c r="F70" s="41"/>
-      <c r="G70" s="41"/>
-      <c r="H70" s="45"/>
+        <v>90</v>
+      </c>
+      <c r="C70" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="40"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="40"/>
+      <c r="G70" s="40"/>
+      <c r="H70" s="44"/>
     </row>
     <row r="71" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="48"/>
-      <c r="B71" s="49" t="s">
-        <v>90</v>
+      <c r="A71" s="47"/>
+      <c r="B71" s="48" t="s">
+        <v>91</v>
       </c>
       <c r="C71" s="16"/>
       <c r="D71" s="16"/>
       <c r="E71" s="16"/>
       <c r="F71" s="16"/>
       <c r="G71" s="16"/>
-      <c r="H71" s="50" t="s">
-        <v>91</v>
+      <c r="H71" s="49" t="s">
+        <v>44</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>92</v>
@@ -2357,23 +2388,23 @@
       <c r="H85" s="19"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="51"/>
-      <c r="C89" s="51"/>
-      <c r="D89" s="51"/>
-      <c r="E89" s="51"/>
-      <c r="F89" s="51"/>
-      <c r="G89" s="51"/>
-      <c r="H89" s="51"/>
+      <c r="B89" s="50"/>
+      <c r="C89" s="50"/>
+      <c r="D89" s="50"/>
+      <c r="E89" s="50"/>
+      <c r="F89" s="50"/>
+      <c r="G89" s="50"/>
+      <c r="H89" s="50"/>
     </row>
     <row r="92" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="51"/>
-      <c r="C105" s="51"/>
-      <c r="D105" s="51"/>
-      <c r="E105" s="51"/>
-      <c r="F105" s="51"/>
-      <c r="G105" s="51"/>
-      <c r="H105" s="51"/>
+      <c r="B105" s="50"/>
+      <c r="C105" s="50"/>
+      <c r="D105" s="50"/>
+      <c r="E105" s="50"/>
+      <c r="F105" s="50"/>
+      <c r="G105" s="50"/>
+      <c r="H105" s="50"/>
     </row>
     <row r="108" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2409,45 +2440,48 @@
     <hyperlink ref="C28" r:id="rId22" display="yes"/>
     <hyperlink ref="C30" r:id="rId23" display="yes"/>
     <hyperlink ref="C31" r:id="rId24" display="yes"/>
-    <hyperlink ref="C32" r:id="rId25" display="yes"/>
-    <hyperlink ref="C33" r:id="rId26" display="yes"/>
-    <hyperlink ref="C34" r:id="rId27" display="yes"/>
-    <hyperlink ref="C35" r:id="rId28" display="yes"/>
-    <hyperlink ref="C36" r:id="rId29" display="yes"/>
-    <hyperlink ref="C37" r:id="rId30" display="yes"/>
-    <hyperlink ref="C38" r:id="rId31" display="yes"/>
-    <hyperlink ref="C39" r:id="rId32" display="yes"/>
-    <hyperlink ref="C40" r:id="rId33" display="yes"/>
-    <hyperlink ref="C41" r:id="rId34" display="yes"/>
-    <hyperlink ref="G42" r:id="rId35" display="Asahi Linux"/>
-    <hyperlink ref="C43" r:id="rId36" display="yes"/>
-    <hyperlink ref="C44" r:id="rId37" display="yes"/>
-    <hyperlink ref="C45" r:id="rId38" display="yes"/>
-    <hyperlink ref="G45" r:id="rId39" display="Asahi Linux"/>
-    <hyperlink ref="F49" r:id="rId40" display="AuroraOS(native)"/>
-    <hyperlink ref="C50" r:id="rId41" display="yes"/>
-    <hyperlink ref="C51" r:id="rId42" display="yes"/>
-    <hyperlink ref="C52" r:id="rId43" display="yes"/>
-    <hyperlink ref="D53" r:id="rId44" display="yes"/>
-    <hyperlink ref="H53" r:id="rId45" display="See Also https://wiki.ubuntu.com/Touch/Devices/tf300t"/>
-    <hyperlink ref="C54" r:id="rId46" display="yes"/>
-    <hyperlink ref="C55" r:id="rId47" display="yes"/>
-    <hyperlink ref="C56" r:id="rId48" display="yes"/>
-    <hyperlink ref="F57" r:id="rId49" display="yes (x86)"/>
-    <hyperlink ref="C58" r:id="rId50" display="yes"/>
-    <hyperlink ref="C59" r:id="rId51" display="yes"/>
-    <hyperlink ref="F60" r:id="rId52" display="yes (x86)"/>
-    <hyperlink ref="F61" r:id="rId53" display="yes"/>
-    <hyperlink ref="C62" r:id="rId54" display="yes"/>
-    <hyperlink ref="C63" r:id="rId55" display="yes"/>
-    <hyperlink ref="C64" r:id="rId56" display="yes"/>
-    <hyperlink ref="C65" r:id="rId57" display="yes"/>
-    <hyperlink ref="C66" r:id="rId58" display="yes"/>
-    <hyperlink ref="D67" r:id="rId59" display="yes"/>
-    <hyperlink ref="E68" r:id="rId60" display="yes"/>
-    <hyperlink ref="C69" r:id="rId61" display="yes"/>
-    <hyperlink ref="C70" r:id="rId62" display="yes"/>
-    <hyperlink ref="H71" r:id="rId63" display="NixOS Mobile"/>
+    <hyperlink ref="H31" r:id="rId25" display="NixOS Mobile"/>
+    <hyperlink ref="C32" r:id="rId26" display="yes"/>
+    <hyperlink ref="C33" r:id="rId27" display="yes"/>
+    <hyperlink ref="C34" r:id="rId28" display="yes"/>
+    <hyperlink ref="C35" r:id="rId29" display="yes"/>
+    <hyperlink ref="C36" r:id="rId30" display="yes"/>
+    <hyperlink ref="C37" r:id="rId31" display="yes"/>
+    <hyperlink ref="C38" r:id="rId32" display="yes"/>
+    <hyperlink ref="C39" r:id="rId33" display="yes"/>
+    <hyperlink ref="C40" r:id="rId34" display="yes"/>
+    <hyperlink ref="C41" r:id="rId35" display="yes"/>
+    <hyperlink ref="G42" r:id="rId36" display="Asahi Linux"/>
+    <hyperlink ref="C43" r:id="rId37" display="yes"/>
+    <hyperlink ref="C44" r:id="rId38" display="yes"/>
+    <hyperlink ref="C45" r:id="rId39" display="yes"/>
+    <hyperlink ref="G45" r:id="rId40" display="Asahi Linux"/>
+    <hyperlink ref="F49" r:id="rId41" display="AuroraOS(native)"/>
+    <hyperlink ref="C50" r:id="rId42" display="yes"/>
+    <hyperlink ref="C51" r:id="rId43" display="yes"/>
+    <hyperlink ref="C52" r:id="rId44" display="yes"/>
+    <hyperlink ref="D53" r:id="rId45" display="yes"/>
+    <hyperlink ref="H53" r:id="rId46" display="See Also https://wiki.ubuntu.com/Touch/Devices/tf300t"/>
+    <hyperlink ref="C54" r:id="rId47" display="yes"/>
+    <hyperlink ref="C55" r:id="rId48" display="yes"/>
+    <hyperlink ref="C56" r:id="rId49" display="yes"/>
+    <hyperlink ref="F57" r:id="rId50" display="yes (x86)"/>
+    <hyperlink ref="C58" r:id="rId51" display="yes"/>
+    <hyperlink ref="C59" r:id="rId52" display="yes"/>
+    <hyperlink ref="F60" r:id="rId53" display="yes (x86)"/>
+    <hyperlink ref="F61" r:id="rId54" display="yes"/>
+    <hyperlink ref="C62" r:id="rId55" display="yes"/>
+    <hyperlink ref="C63" r:id="rId56" display="yes"/>
+    <hyperlink ref="H63" r:id="rId57" display="NixOS Mobile"/>
+    <hyperlink ref="C64" r:id="rId58" display="yes"/>
+    <hyperlink ref="C65" r:id="rId59" display="yes"/>
+    <hyperlink ref="C66" r:id="rId60" display="yes"/>
+    <hyperlink ref="D67" r:id="rId61" display="yes"/>
+    <hyperlink ref="H67" r:id="rId62" display="NixOS Mobile"/>
+    <hyperlink ref="E68" r:id="rId63" display="yes"/>
+    <hyperlink ref="C69" r:id="rId64" display="yes"/>
+    <hyperlink ref="C70" r:id="rId65" display="yes"/>
+    <hyperlink ref="H71" r:id="rId66" display="NixOS Mobile"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -2529,125 +2563,125 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="51" t="s">
         <v>93</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="45"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="44"/>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="53" t="s">
         <v>95</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42" t="s">
+      <c r="C5" s="40"/>
+      <c r="D5" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="45"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="44"/>
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="54"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C6" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="42" t="s">
+      <c r="C6" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="45"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="44"/>
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="54"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="42" t="s">
+      <c r="C7" s="40"/>
+      <c r="D7" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="45"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="44"/>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="54"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="45"/>
+      <c r="C8" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="44"/>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="54"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="45"/>
+      <c r="C9" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="44"/>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="54"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="45"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="44"/>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="54"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="45"/>
+      <c r="C11" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="44"/>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="54"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="14" t="s">
         <v>104</v>
       </c>
@@ -2736,13 +2770,13 @@
     <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
     </row>
     <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2760,13 +2794,13 @@
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -2851,7 +2885,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.34375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2911,129 +2945,129 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="51" t="s">
         <v>105</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="45"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="44"/>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="52"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="45"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="40"/>
+      <c r="G5" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="44"/>
       <c r="I5" s="1" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="52"/>
+      <c r="A6" s="51"/>
       <c r="B6" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="45"/>
+      <c r="C6" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="44"/>
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="52"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="53" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="45"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="44"/>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="53" t="s">
         <v>111</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="54" t="s">
         <v>113</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="53" t="s">
         <v>114</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
+      <c r="C9" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="12" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="53" t="s">
         <v>117</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
       <c r="H10" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="48" t="s">
         <v>120</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>11</v>
+        <v>121</v>
       </c>
       <c r="D11" s="17"/>
       <c r="E11" s="17"/>
@@ -3042,14 +3076,14 @@
       <c r="H11" s="17"/>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="56"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="58"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
-      <c r="H12" s="58"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
     </row>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="3"/>
@@ -3127,13 +3161,13 @@
     <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
     </row>
     <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3151,13 +3185,13 @@
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3243,7 +3277,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.34375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3304,12 +3338,12 @@
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="58" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="19"/>
@@ -3319,41 +3353,41 @@
       <c r="H4" s="19"/>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="57" t="s">
-        <v>123</v>
+      <c r="A5" s="56" t="s">
+        <v>124</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
-      <c r="F5" s="60" t="s">
-        <v>76</v>
+      <c r="F5" s="59" t="s">
+        <v>77</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="57"/>
+      <c r="A6" s="56"/>
       <c r="B6" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
-      <c r="F6" s="60" t="s">
-        <v>76</v>
+      <c r="F6" s="59" t="s">
+        <v>77</v>
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
@@ -3404,13 +3438,13 @@
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
     </row>
     <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3428,13 +3462,13 @@
     <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="31" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
     </row>
     <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3583,12 +3617,12 @@
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="58" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="19"/>
@@ -3664,13 +3698,13 @@
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
     </row>
     <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3688,13 +3722,13 @@
     <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="31" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="51"/>
-      <c r="H31" s="51"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="50"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
     </row>
     <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3838,141 +3872,141 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="52" t="s">
-        <v>130</v>
+      <c r="A4" s="51" t="s">
+        <v>131</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
+        <v>132</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
       <c r="F4" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="45"/>
+        <v>63</v>
+      </c>
+      <c r="G4" s="40"/>
+      <c r="H4" s="44"/>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="52"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
+        <v>133</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="45"/>
+        <v>63</v>
+      </c>
+      <c r="G5" s="40"/>
+      <c r="H5" s="44"/>
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="54" t="s">
-        <v>133</v>
+      <c r="A6" s="53" t="s">
+        <v>134</v>
       </c>
       <c r="B6" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="45"/>
+      <c r="C6" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="44"/>
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="54"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="C7" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="41"/>
+      <c r="C7" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="40"/>
       <c r="F7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="41"/>
+      <c r="G7" s="40"/>
       <c r="H7" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="54"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="45"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="44"/>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="54"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="45"/>
+        <v>136</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="44"/>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="54" t="s">
-        <v>136</v>
+      <c r="A10" s="53" t="s">
+        <v>137</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="45"/>
+        <v>138</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="44"/>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="54" t="s">
-        <v>138</v>
+      <c r="A11" s="53" t="s">
+        <v>139</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="45"/>
+        <v>140</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="44"/>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="54" t="s">
-        <v>140</v>
+      <c r="A12" s="53" t="s">
+        <v>141</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="C12" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="45" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="16"/>
@@ -3982,20 +4016,20 @@
       <c r="H12" s="17"/>
     </row>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="B13" s="49" t="s">
+      <c r="A13" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="B13" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
+      <c r="C13" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
     </row>
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="3"/>
@@ -4064,13 +4098,13 @@
     <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
     </row>
     <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4088,13 +4122,13 @@
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4180,12 +4214,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:I107"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G6" activeCellId="0" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.34375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4203,7 +4237,7 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -4247,176 +4281,199 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="52" t="s">
-        <v>146</v>
+      <c r="A4" s="51" t="s">
+        <v>147</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
+        <v>148</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
       <c r="H4" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="54"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
+        <v>149</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
       <c r="H5" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="54"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
+        <v>150</v>
+      </c>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
       <c r="H6" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="54" t="s">
-        <v>150</v>
+      <c r="A7" s="53" t="s">
+        <v>151</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="45"/>
+        <v>152</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="44"/>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="54" t="s">
-        <v>152</v>
+      <c r="A8" s="53" t="s">
+        <v>153</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="45"/>
+        <v>154</v>
+      </c>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="44"/>
     </row>
     <row r="9" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="54"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="45"/>
+        <v>155</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="44"/>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="54"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C10" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="41"/>
+        <v>156</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="40"/>
       <c r="F10" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="G10" s="41"/>
-      <c r="H10" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="40"/>
+      <c r="H10" s="12" t="s">
         <v>157</v>
       </c>
+      <c r="I10" s="19" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="54"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="40"/>
+      <c r="D11" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="40"/>
+      <c r="F11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="40"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="19" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="41"/>
-      <c r="H11" s="45"/>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="54"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="C12" s="41"/>
+        <v>160</v>
+      </c>
+      <c r="C12" s="40"/>
       <c r="D12" s="16"/>
-      <c r="E12" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" s="16" t="s">
+      <c r="E12" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="63" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="17"/>
+      <c r="I12" s="19" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B13" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
+        <v>161</v>
+      </c>
+      <c r="C13" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="64" t="s">
+        <v>11</v>
+      </c>
       <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
+      <c r="F13" s="59" t="s">
+        <v>11</v>
+      </c>
       <c r="G13" s="19"/>
       <c r="H13" s="19"/>
     </row>
     <row r="14" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B14" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C14" s="19"/>
+        <v>162</v>
+      </c>
+      <c r="C14" s="58" t="s">
+        <v>11</v>
+      </c>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
+      <c r="F14" s="59" t="s">
+        <v>11</v>
+      </c>
       <c r="G14" s="19"/>
       <c r="H14" s="19"/>
     </row>
     <row r="15" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B15" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
+        <v>163</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="64" t="s">
+        <v>11</v>
+      </c>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
       <c r="G15" s="19"/>
@@ -4424,9 +4481,9 @@
     </row>
     <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B16" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C16" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="58" t="s">
         <v>11</v>
       </c>
       <c r="D16" s="19"/>
@@ -4434,25 +4491,30 @@
       <c r="F16" s="19"/>
       <c r="G16" s="19"/>
       <c r="H16" s="19"/>
+      <c r="I16" s="19" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C17" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="C17" s="58" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="19"/>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
+      <c r="H17" s="65" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B18" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C18" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="58" t="s">
         <v>11</v>
       </c>
       <c r="D18" s="19"/>
@@ -4463,7 +4525,7 @@
     </row>
     <row r="19" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B19" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
@@ -4474,7 +4536,7 @@
     </row>
     <row r="20" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B20" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
@@ -4485,7 +4547,7 @@
     </row>
     <row r="21" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -4498,7 +4560,7 @@
     </row>
     <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B22" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -4509,23 +4571,29 @@
     </row>
     <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="3" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
+      <c r="H23" s="66" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
+      <c r="B24" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="67" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="26" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4543,13 +4611,13 @@
     <row r="38" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="40" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="50"/>
+      <c r="F40" s="50"/>
+      <c r="G40" s="50"/>
+      <c r="H40" s="50"/>
     </row>
     <row r="41" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="42" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -4610,15 +4678,30 @@
     <hyperlink ref="D9" r:id="rId6" display="yes"/>
     <hyperlink ref="C10" r:id="rId7" display="yes"/>
     <hyperlink ref="D10" r:id="rId8" display="yes"/>
-    <hyperlink ref="H10" r:id="rId9" display="Nemo Mobile"/>
-    <hyperlink ref="D11" r:id="rId10" display="yes"/>
-    <hyperlink ref="F11" r:id="rId11" display="yes"/>
-    <hyperlink ref="E12" r:id="rId12" display="yes"/>
-    <hyperlink ref="F12" r:id="rId13" display="yes"/>
-    <hyperlink ref="C16" r:id="rId14" display="yes"/>
-    <hyperlink ref="C17" r:id="rId15" display="yes"/>
-    <hyperlink ref="C18" r:id="rId16" display="yes"/>
-    <hyperlink ref="G21" r:id="rId17" display="yes"/>
+    <hyperlink ref="F10" r:id="rId9" display="yes"/>
+    <hyperlink ref="H10" r:id="rId10" display="Nemo Mobile"/>
+    <hyperlink ref="I10" r:id="rId11" display="LuneOS"/>
+    <hyperlink ref="D11" r:id="rId12" display="yes"/>
+    <hyperlink ref="F11" r:id="rId13" display="yes"/>
+    <hyperlink ref="I11" r:id="rId14" display="LuneOS"/>
+    <hyperlink ref="E12" r:id="rId15" display="yes"/>
+    <hyperlink ref="F12" r:id="rId16" display="yes"/>
+    <hyperlink ref="I12" r:id="rId17" display="LuneOS"/>
+    <hyperlink ref="C13" r:id="rId18" display="yes"/>
+    <hyperlink ref="D13" r:id="rId19" display="yes"/>
+    <hyperlink ref="F13" r:id="rId20" display="yes"/>
+    <hyperlink ref="C14" r:id="rId21" display="yes"/>
+    <hyperlink ref="F14" r:id="rId22" display="yes"/>
+    <hyperlink ref="C15" r:id="rId23" display="yes"/>
+    <hyperlink ref="D15" r:id="rId24" display="yes"/>
+    <hyperlink ref="C16" r:id="rId25" display="yes"/>
+    <hyperlink ref="I16" r:id="rId26" display="LuneOS"/>
+    <hyperlink ref="C17" r:id="rId27" display="yes"/>
+    <hyperlink ref="H17" r:id="rId28" display="NixOS Mobile"/>
+    <hyperlink ref="C18" r:id="rId29" display="yes"/>
+    <hyperlink ref="G21" r:id="rId30" display="yes"/>
+    <hyperlink ref="H23" r:id="rId31" display="NixOS Mobile"/>
+    <hyperlink ref="H24" r:id="rId32" display="NixOS Mobile"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
